--- a/src/exerciseSelena/PlanCalentamiento_WU_exerciseSelena.xlsx
+++ b/src/exerciseSelena/PlanCalentamiento_WU_exerciseSelena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jakalacorp-my.sharepoint.com/personal/marcos_lambir_jakala_com/Documents/Documentos/SFMC/exerciseSelena/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcosLambirTorres\Dev\SFMC\src\exerciseSelena\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="11_819B653AE6C208F09C90A177DEF8A8E73086946A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2228E8EF-CF8A-4997-9F7B-A1C898DCD48D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23656D6F-D1A1-4D1E-A679-51C853D6DF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1005" windowWidth="29040" windowHeight="15720" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WU ENDESA" sheetId="1" r:id="rId1"/>
@@ -110,15 +110,6 @@
     <t>Creatividad 5</t>
   </si>
   <si>
-    <t xml:space="preserve">	392,465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	276,566</t>
-  </si>
-  <si>
-    <t>Envios</t>
-  </si>
-  <si>
     <t>Dia</t>
   </si>
   <si>
@@ -131,10 +122,19 @@
     <t>Negativa</t>
   </si>
   <si>
-    <t>*Se incrementa de envíos según la tabla oficial de Salesforce</t>
-  </si>
-  <si>
     <t>TOTAL ENVIOS:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	276566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	392465</t>
+  </si>
+  <si>
+    <t>Envio diario</t>
+  </si>
+  <si>
+    <t>*Se incrementan los Envíos diarios según la tabla oficial de Salesforce</t>
   </si>
 </sst>
 </file>
@@ -440,9 +440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,25 +502,28 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -759,18 +759,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
@@ -785,24 +785,24 @@
     <row r="3" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
+      <c r="D5" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2">
         <v>45597</v>
       </c>
@@ -818,63 +818,63 @@
       <c r="F9" s="2">
         <v>45601</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>45602</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>45603</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="17">
+        <v>32</v>
+      </c>
+      <c r="B11" s="16">
         <v>500</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>500</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>500</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="19">
+      <c r="E11" s="16"/>
+      <c r="F11" s="18">
         <v>1000</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="34">
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="38">
         <f>SUM(B11:F11)</f>
         <v>2500</v>
       </c>
-      <c r="J11" s="35"/>
+      <c r="J11" s="39"/>
     </row>
     <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>3</v>
@@ -889,11 +889,11 @@
       <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>45604</v>
       </c>
@@ -909,57 +909,57 @@
       <c r="F13" s="2">
         <v>45608</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>45609</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <v>45610</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="17">
+        <v>32</v>
+      </c>
+      <c r="B15" s="16">
         <v>1000</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17">
+      <c r="C15" s="18"/>
+      <c r="D15" s="16">
         <v>1500</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>2500</v>
       </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="34">
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="38">
         <f>SUM(B15:F15)</f>
         <v>5000</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -972,11 +972,11 @@
         <v>9</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="2">
         <v>45611</v>
       </c>
@@ -992,61 +992,61 @@
       <c r="F17" s="2">
         <v>45615</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <v>45616</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <v>45617</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="17">
+        <v>32</v>
+      </c>
+      <c r="B19" s="16">
         <v>4000</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>7000</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="16">
         <v>12000</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16">
         <v>18000</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="34">
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="38">
         <f>SUM(B19:F19)</f>
         <v>41000</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>10</v>
@@ -1061,11 +1061,11 @@
       <c r="F20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2">
         <v>45618</v>
       </c>
@@ -1081,57 +1081,57 @@
       <c r="F21" s="2">
         <v>45622</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>45623</v>
       </c>
-      <c r="H21" s="15">
+      <c r="H21" s="14">
         <v>45624</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="29" t="s">
+      <c r="C22" s="16"/>
+      <c r="D22" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="17">
+        <v>32</v>
+      </c>
+      <c r="B23" s="16">
         <v>30000</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="17">
+      <c r="C23" s="18"/>
+      <c r="D23" s="16">
         <v>50000</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>80000</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="34">
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="38">
         <f>SUM(B23:F23)</f>
         <v>160000</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>19</v>
@@ -1144,11 +1144,11 @@
         <v>21</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2">
         <v>45625</v>
       </c>
@@ -1164,53 +1164,53 @@
       <c r="F25" s="2">
         <v>45629</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <v>45630</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <v>45631</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="17">
+        <v>32</v>
+      </c>
+      <c r="B27" s="16">
         <v>100000</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18">
         <v>46566</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="34">
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="38">
         <f>SUM(B27:F27)</f>
         <v>146566</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>22</v>
@@ -1221,35 +1221,35 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
+      <c r="A29" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="23">
+        <v>29</v>
+      </c>
+      <c r="J30" s="22">
         <f>SUM(I11:I27)</f>
         <v>355066</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1268,49 +1268,49 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="38"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="27"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -1328,48 +1328,48 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="32" t="s">
+      <c r="C37" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="33" t="s">
+      <c r="F37" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="27"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="3" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="7" t="s">
@@ -1396,7 +1396,7 @@
       <c r="C41" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="32" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="7" t="s">
@@ -1408,27 +1408,27 @@
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="27"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B45" s="7" t="s">
@@ -1455,13 +1455,13 @@
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2426,6 +2426,7 @@
     <row r="1000" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="A29:J29"/>
     <mergeCell ref="I11:J11"/>
@@ -2433,7 +2434,6 @@
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
